--- a/DemoWebShop/src/test/resources/TestscriptData.xlsx
+++ b/DemoWebShop/src/test/resources/TestscriptData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prema\eclipse-workspace\Java\DemoWebShop\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prema\git\repository\DemoWebShop\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F6047C-CA3A-49CD-ACF9-EF94FE51D425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E2EEF0-A068-485A-95B6-8B915E3CD19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A95873CE-8C4B-44BD-BC81-E49CDF369D7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A95873CE-8C4B-44BD-BC81-E49CDF369D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Login" sheetId="2" r:id="rId3"/>
     <sheet name="Home" sheetId="7" r:id="rId4"/>
     <sheet name="Books" sheetId="4" r:id="rId5"/>
-    <sheet name="Shoppingcart" sheetId="3" r:id="rId6"/>
-    <sheet name="Date" sheetId="5" r:id="rId7"/>
+    <sheet name="Computers" sheetId="8" r:id="rId6"/>
+    <sheet name="Electronics" sheetId="9" r:id="rId7"/>
+    <sheet name="Shoppingcart" sheetId="3" r:id="rId8"/>
+    <sheet name="Date" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>abhis1234@gmail.com</t>
   </si>
@@ -88,6 +90,12 @@
   </si>
   <si>
     <t>Demo Web Shop. Login</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Computers</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Electronics</t>
   </si>
 </sst>
 </file>
@@ -664,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1431C006-30B1-4E6D-B34B-543BC3B3DB26}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,6 +697,62 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ECF28B-481F-457B-9A05-14F10ECC6AFD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD04966-8673-4E53-91C6-FBB527989FD8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09E2F3-9FAB-416D-8946-0778F7283C58}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -716,7 +780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44E715D-2CF4-42F3-906C-1F5EBC544D4C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
